--- a/Labs_Cinemas/Genres.xlsx
+++ b/Labs_Cinemas/Genres.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
-    <sheet name="Lyrics" sheetId="1" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Years</t>
   </si>
@@ -39,10 +39,7 @@
     <t>Term</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>52f</t>
+    <t>Ukraine</t>
   </si>
 </sst>
 </file>
@@ -392,12 +389,12 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,9 +412,9 @@
       </c>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>20215</v>
+        <v>2012</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -425,8 +422,8 @@
       <c r="C2">
         <v>180</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>52</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
